--- a/database/industries/folad/faspa/cost/yearly.xlsx
+++ b/database/industries/folad/faspa/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C43243-DA79-40E2-B0F7-63C074D20E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956FD69F-FF12-4A2E-B6D6-82B6EAEA9C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -632,12 +632,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +647,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -681,7 +681,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -715,7 +715,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -747,7 +747,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -769,7 +769,7 @@
         <v>20717857</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
         <v>411012</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -813,7 +813,7 @@
         <v>766556</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -835,7 +835,7 @@
         <v>21895425</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -879,7 +879,7 @@
         <v>21895425</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -901,7 +901,7 @@
         <v>-407696</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -945,7 +945,7 @@
         <v>21487729</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1241365</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -989,7 +989,7 @@
         <v>-1500542</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>21228552</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>2995725</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>24224277</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1065,7 +1065,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1075,7 +1075,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1085,7 +1085,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1117,7 +1117,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>12167</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>12167</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1183,7 +1183,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1193,7 +1193,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1225,7 +1225,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>114816</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>114816</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1281,7 +1281,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1301,7 +1301,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1333,7 +1333,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>109094</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>109094</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1389,7 +1389,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1409,7 +1409,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>29</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1441,7 +1441,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>17889</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>17889</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1497,7 +1497,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1507,7 +1507,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1549,7 +1549,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>1835783</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>1835783</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1605,7 +1605,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1615,7 +1615,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1625,7 +1625,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>32</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1657,7 +1657,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>22492169</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>22492169</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1713,7 +1713,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1723,7 +1723,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1733,7 +1733,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>33</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1765,7 +1765,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>20717857</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>20717857</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1821,7 +1821,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1831,7 +1831,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>34</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1873,7 +1873,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>3610095</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>3610095</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1929,7 +1929,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1939,7 +1939,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1949,7 +1949,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>35</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1981,7 +1981,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>150882140</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2015,7 +2015,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2025,7 +2025,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2035,7 +2035,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>37</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2067,7 +2067,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>195897514</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2101,7 +2101,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2111,7 +2111,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2121,7 +2121,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>38</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2153,7 +2153,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>189908308</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2187,7 +2187,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2197,7 +2197,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2207,7 +2207,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>39</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2239,7 +2239,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>201805299</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2273,7 +2273,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2283,7 +2283,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2293,7 +2293,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>40</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2325,7 +2325,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>41</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>42</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>44</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>45</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>46</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>38169</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>47</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>68367</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>48</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>443479</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>49</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>50</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>216541</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
